--- a/需求说明SRS/游戏制作目标.xlsx
+++ b/需求说明SRS/游戏制作目标.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\学习\软工基础\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\模拟三国\Three-Kindoms\需求说明SRS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AB9C691-2BDA-4FF1-9546-8E878E88470E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD906831-3F3B-4131-AF4E-151AE7BF9385}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CF4F0CB6-12BC-4914-A483-00C8F80E50CF}"/>
   </bookViews>
@@ -25,162 +25,176 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+  <si>
+    <t>地图—城池</t>
+  </si>
+  <si>
+    <t>地图只由城池构成</t>
+  </si>
+  <si>
+    <t>武将系统</t>
+  </si>
+  <si>
+    <t>内政系统</t>
+  </si>
+  <si>
+    <t>军事系统</t>
+  </si>
+  <si>
+    <t>外交系统</t>
+  </si>
+  <si>
+    <t>计策系统</t>
+  </si>
+  <si>
+    <t>简单的AI</t>
+  </si>
+  <si>
+    <t>AI对手会简单分析并进行操作</t>
+  </si>
+  <si>
+    <t>中极目标</t>
+  </si>
+  <si>
+    <t>可操纵的战斗界面</t>
+  </si>
+  <si>
+    <t>可以对战斗进行操作，影响战局</t>
+  </si>
+  <si>
+    <t>通过一定条件可以获得官位</t>
+  </si>
+  <si>
+    <t>多种胜利条件</t>
+  </si>
+  <si>
+    <t>复杂的资源</t>
+  </si>
+  <si>
+    <t>除军粮，兵器以外，各类生活资源也会作为战略资源</t>
+  </si>
+  <si>
+    <t>中等的AI</t>
+  </si>
+  <si>
+    <t>高级目标</t>
+  </si>
+  <si>
+    <t>武将的特殊能力</t>
+  </si>
+  <si>
+    <t>部分武将可以在一定条件下使用特殊技能</t>
+  </si>
+  <si>
+    <t>地图中不仅仅只有城池，还有各类野地，极大扩展战略布置方法和战斗策略</t>
+  </si>
+  <si>
+    <t>排行榜系统</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单的资源</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>有规律的随机事件</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>地震，台风，旱灾，涝灾；丰收</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标层次</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标名称</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标概述</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以根据一定公式和目标成就折合分数，和好友比拼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>不仅仅只能通过征服获得胜利，还可以选择复兴汉室，或者组成联合。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉室系统</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>占据皇帝所在城池时，可以使用“挟天子以令诸侯”等特殊操作</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI会进行合纵连横等策略</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>每回合自动保存</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>摁下“下一回合”按钮后，优先进行自动保存</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>头衔-官位系统</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>地图——城池、野外</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置界面</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以调整音量等设置</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>每一位武将拥有自己的属性和简介,统帅，武力，政治，计谋，魅力和人物简介（名将拥有）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>人事系统</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>驱虎吞狼，离间武将，策反武将，蛊惑民众</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
   <si>
     <t>基础目标</t>
-  </si>
-  <si>
-    <t>地图—城池</t>
-  </si>
-  <si>
-    <t>地图只由城池构成</t>
-  </si>
-  <si>
-    <t>武将系统</t>
-  </si>
-  <si>
-    <t>每一位武将拥有自己的属性和简介</t>
-  </si>
-  <si>
-    <t>内政系统</t>
-  </si>
-  <si>
-    <t>一整套内政操作</t>
-  </si>
-  <si>
-    <t>军事系统</t>
-  </si>
-  <si>
-    <t>一整套军事操作</t>
-  </si>
-  <si>
-    <t>外交系统</t>
-  </si>
-  <si>
-    <t>一整套外交操作</t>
-  </si>
-  <si>
-    <t>计策系统</t>
-  </si>
-  <si>
-    <t>一整套计策操作</t>
-  </si>
-  <si>
-    <t>简单的AI</t>
-  </si>
-  <si>
-    <t>AI对手会简单分析并进行操作</t>
-  </si>
-  <si>
-    <t>中极目标</t>
-  </si>
-  <si>
-    <t>可操纵的战斗界面</t>
-  </si>
-  <si>
-    <t>可以对战斗进行操作，影响战局</t>
-  </si>
-  <si>
-    <t>通过一定条件可以获得官位</t>
-  </si>
-  <si>
-    <t>多种胜利条件</t>
-  </si>
-  <si>
-    <t>复杂的资源</t>
-  </si>
-  <si>
-    <t>除军粮，兵器以外，各类生活资源也会作为战略资源</t>
-  </si>
-  <si>
-    <t>中等的AI</t>
-  </si>
-  <si>
-    <t>高级目标</t>
-  </si>
-  <si>
-    <t>武将的特殊能力</t>
-  </si>
-  <si>
-    <t>部分武将可以在一定条件下使用特殊技能</t>
-  </si>
-  <si>
-    <t>地图中不仅仅只有城池，还有各类野地，极大扩展战略布置方法和战斗策略</t>
-  </si>
-  <si>
-    <t>排行榜系统</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>简单的资源</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>粮草，兵力，民忠，将忠</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>有规律的随机事件</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>地震，台风，旱灾，涝灾；丰收</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>目标层次</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>目标名称</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>目标概述</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以根据一定公式和目标成就折合分数，和好友比拼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>不仅仅只能通过征服获得胜利，还可以选择复兴汉室，或者组成联合。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>汉室系统</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>占据皇帝所在城池时，可以使用“挟天子以令诸侯”等特殊操作</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>AI会进行合纵连横等策略</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>每回合自动保存</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>摁下“下一回合”按钮后，优先进行自动保存</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>头衔-官位系统</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>地图——城池、野外</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置界面</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以调整音量等设置</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>金钱，粮草，兵力，民忠，将忠</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>出征，输送，征兵</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发农田，开发商业，粮草买卖，提高民忠</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>任命，褒奖，移动，流放</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>宣战，友好，同盟，联盟，劝降，臣服，侮辱</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -188,7 +202,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -236,8 +250,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -259,6 +281,12 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -269,7 +297,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -285,8 +313,11 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -305,14 +336,21 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="5" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
+    <cellStyle name="20% - 着色 1" xfId="5" builtinId="30"/>
     <cellStyle name="标题" xfId="1" builtinId="15"/>
     <cellStyle name="差" xfId="3" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -629,221 +667,230 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD4612A6-EEB3-4A62-A30F-59D31BF86226}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:C21"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.21875" customWidth="1"/>
     <col min="2" max="2" width="21.44140625" customWidth="1"/>
-    <col min="3" max="3" width="72.21875" customWidth="1"/>
+    <col min="3" max="3" width="81.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>14</v>
+        <v>40</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="2" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="2" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="2" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5"/>
+      <c r="B14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="B18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="4" t="s">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="4" t="s">
+      <c r="C19" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+      <c r="B20" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-      <c r="B20" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>39</v>
-      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
+      <c r="A21" s="6"/>
       <c r="B21" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>17</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="6"/>
+      <c r="B22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A2:A13"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A2:A14"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A19:A22"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/需求说明SRS/游戏制作目标.xlsx
+++ b/需求说明SRS/游戏制作目标.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\模拟三国\Three-Kindoms\需求说明SRS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD906831-3F3B-4131-AF4E-151AE7BF9385}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D55C252-7799-4711-B458-24398A7494AB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CF4F0CB6-12BC-4914-A483-00C8F80E50CF}"/>
   </bookViews>
@@ -162,10 +162,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>每一位武将拥有自己的属性和简介,统帅，武力，政治，计谋，魅力和人物简介（名将拥有）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>人事系统</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -195,6 +191,10 @@
   </si>
   <si>
     <t>宣战，友好，同盟，联盟，劝降，臣服，侮辱</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>每一位武将拥有自己的属性:统帅，武力，政治，计谋，魅力</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -333,20 +333,20 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="4">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="5" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="5" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -670,7 +670,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -692,8 +692,8 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>42</v>
+      <c r="A2" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -703,61 +703,61 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
+      <c r="A3" s="7"/>
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
+      <c r="A4" s="7"/>
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>45</v>
+      <c r="C4" s="5" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
+      <c r="A5" s="7"/>
       <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>44</v>
+      <c r="C5" s="5" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
+      <c r="A6" s="7"/>
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>47</v>
+      <c r="C6" s="6" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
+      <c r="A7" s="7"/>
       <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>41</v>
+      <c r="C7" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
+      <c r="A8" s="7"/>
       <c r="B8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>46</v>
+        <v>39</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
+      <c r="A9" s="7"/>
       <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
@@ -766,7 +766,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
+      <c r="A10" s="7"/>
       <c r="B10" s="2" t="s">
         <v>37</v>
       </c>
@@ -775,16 +775,16 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
+      <c r="A11" s="7"/>
       <c r="B11" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
+      <c r="A12" s="7"/>
       <c r="B12" s="2" t="s">
         <v>21</v>
       </c>
@@ -793,7 +793,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
+      <c r="A13" s="7"/>
       <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
@@ -802,7 +802,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
+      <c r="A14" s="7"/>
       <c r="B14" s="2" t="s">
         <v>33</v>
       </c>
@@ -811,7 +811,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -822,7 +822,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
+      <c r="A16" s="8"/>
       <c r="B16" s="4" t="s">
         <v>35</v>
       </c>
@@ -831,7 +831,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
+      <c r="A17" s="8"/>
       <c r="B17" s="4" t="s">
         <v>30</v>
       </c>
@@ -840,7 +840,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
+      <c r="A18" s="8"/>
       <c r="B18" s="4" t="s">
         <v>14</v>
       </c>
@@ -849,7 +849,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -860,7 +860,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
+      <c r="A20" s="9"/>
       <c r="B20" s="3" t="s">
         <v>36</v>
       </c>
@@ -869,7 +869,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
+      <c r="A21" s="9"/>
       <c r="B21" s="3" t="s">
         <v>16</v>
       </c>
@@ -878,7 +878,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
+      <c r="A22" s="9"/>
       <c r="B22" s="3" t="s">
         <v>10</v>
       </c>

--- a/需求说明SRS/游戏制作目标.xlsx
+++ b/需求说明SRS/游戏制作目标.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\模拟三国\Three-Kindoms\需求说明SRS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gittubdesktop\Three-Kindoms\需求说明SRS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D55C252-7799-4711-B458-24398A7494AB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CF4F0CB6-12BC-4914-A483-00C8F80E50CF}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -186,22 +185,22 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>任命，褒奖，移动，流放</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>宣战，友好，同盟，联盟，劝降，臣服，侮辱</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>每一位武将拥有自己的属性:统帅，武力，政治，计谋，魅力</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>任命，褒奖，移动，流放，登庸</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -666,21 +665,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD4612A6-EEB3-4A62-A30F-59D31BF86226}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.21875" customWidth="1"/>
-    <col min="2" max="2" width="21.44140625" customWidth="1"/>
-    <col min="3" max="3" width="81.109375" customWidth="1"/>
+    <col min="1" max="1" width="23.25" customWidth="1"/>
+    <col min="2" max="2" width="21.5" customWidth="1"/>
+    <col min="3" max="3" width="81.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -691,7 +690,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>41</v>
       </c>
@@ -702,16 +701,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="7"/>
       <c r="B4" s="2" t="s">
         <v>3</v>
@@ -720,7 +719,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="2" t="s">
         <v>4</v>
@@ -729,16 +728,16 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
       <c r="B7" s="2" t="s">
         <v>6</v>
@@ -747,16 +746,16 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
       <c r="B8" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C8" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
       <c r="B9" s="2" t="s">
         <v>7</v>
@@ -765,7 +764,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
       <c r="B10" s="2" t="s">
         <v>37</v>
@@ -774,7 +773,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
       <c r="B11" s="2" t="s">
         <v>22</v>
@@ -783,7 +782,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="7"/>
       <c r="B12" s="2" t="s">
         <v>21</v>
@@ -792,7 +791,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
       <c r="B13" s="2" t="s">
         <v>13</v>
@@ -801,7 +800,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
       <c r="B14" s="2" t="s">
         <v>33</v>
@@ -810,7 +809,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>9</v>
       </c>
@@ -821,7 +820,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="8"/>
       <c r="B16" s="4" t="s">
         <v>35</v>
@@ -830,7 +829,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="8"/>
       <c r="B17" s="4" t="s">
         <v>30</v>
@@ -839,7 +838,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="8"/>
       <c r="B18" s="4" t="s">
         <v>14</v>
@@ -848,7 +847,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
         <v>17</v>
       </c>
@@ -859,7 +858,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="9"/>
       <c r="B20" s="3" t="s">
         <v>36</v>
@@ -868,7 +867,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="9"/>
       <c r="B21" s="3" t="s">
         <v>16</v>
@@ -877,7 +876,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="9"/>
       <c r="B22" s="3" t="s">
         <v>10</v>
